--- a/Test Case template.xlsx
+++ b/Test Case template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\Business-62-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42718AF-D3A0-44EE-829A-F14F3C040E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2E5F3-D096-46A6-9069-324D28F6CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Step no.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Defect Test case</t>
-  </si>
-  <si>
     <t>Test Priority</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Test Severity</t>
+  </si>
+  <si>
+    <t>Test Prerequisites</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +136,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -152,8 +161,323 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,66 +485,79 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,361 +565,143 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -591,78 +710,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I19" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,8 +1123,9 @@
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25"/>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1003,61 +1134,63 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="46"/>
-      <c r="H4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1067,27 +1200,34 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1097,7 +1237,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1107,121 +1248,131 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="H10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="33"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="34"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="34"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="34"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="34"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="34"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="35"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="41"/>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1231,7 +1382,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1242,6 +1393,10 @@
       <c r="I21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>